--- a/iselUssSyncV2/OutputWSL/20220427_1404_D50L474W90Q30U0.39H97G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220427_1404_D50L474W90Q30U0.39H97G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>97.434285714285707</v>
+        <v>97.435216481306668</v>
       </c>
       <c r="F2" s="0">
-        <v>97.508650793650801</v>
+        <v>97.509581560671776</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>97.933320158102759</v>
+        <v>97.935595366376262</v>
       </c>
       <c r="F3" s="0">
-        <v>99.0922134387352</v>
+        <v>99.094488647008646</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>96.93135458167329</v>
+        <v>96.934105515313078</v>
       </c>
       <c r="F4" s="0">
-        <v>100.74430278884464</v>
+        <v>100.74705372248438</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>96.23227091633467</v>
+        <v>96.235077006538617</v>
       </c>
       <c r="F5" s="0">
-        <v>101.25808764940241</v>
+        <v>101.26089373960636</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>95.144701195219127</v>
+        <v>95.147555547416758</v>
       </c>
       <c r="F6" s="0">
-        <v>101.96023904382469</v>
+        <v>101.96309339602233</v>
       </c>
     </row>
     <row r="7">
@@ -222,10 +222,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>93.05290836653387</v>
+        <v>93.055804086154666</v>
       </c>
       <c r="F7" s="0">
-        <v>101.62900398406373</v>
+        <v>101.63189970368455</v>
       </c>
     </row>
     <row r="8">
@@ -242,10 +242,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>89.183134920634927</v>
+        <v>89.186065113108356</v>
       </c>
       <c r="F8" s="0">
-        <v>97.718968253968271</v>
+        <v>97.721898446441685</v>
       </c>
     </row>
     <row r="9">
@@ -262,7 +262,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>86.909682539682549</v>
+        <v>86.912624590817273</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -280,7 +280,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>84.391071428571422</v>
+        <v>84.394024235236174</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -298,7 +298,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>81.662380952380971</v>
+        <v>81.665343411444411</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -316,7 +316,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>80.212063492063507</v>
+        <v>80.215030363652104</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -334,10 +334,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>78.67246031746032</v>
+        <v>78.675431325791266</v>
       </c>
       <c r="F13" s="0">
-        <v>61.748015873015873</v>
+        <v>61.750986881346805</v>
       </c>
     </row>
     <row r="14">
@@ -354,10 +354,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>77.400357142857146</v>
+        <v>77.403332012147601</v>
       </c>
       <c r="F14" s="0">
-        <v>61.650396825396832</v>
+        <v>61.653371694687259</v>
       </c>
     </row>
     <row r="15">
@@ -374,10 +374,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>76.274980079681271</v>
+        <v>76.277958534148397</v>
       </c>
       <c r="F15" s="0">
-        <v>64.861872509960165</v>
+        <v>64.864850964427276</v>
       </c>
     </row>
     <row r="16">
@@ -394,10 +394,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>73.768366533864551</v>
+        <v>73.771351331336533</v>
       </c>
       <c r="F16" s="0">
-        <v>67.123067729083672</v>
+        <v>67.126052526555654</v>
       </c>
     </row>
     <row r="17">
@@ -414,7 +414,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>71.853864541832692</v>
+        <v>71.85685457917829</v>
       </c>
       <c r="F17" s="0"/>
     </row>
@@ -432,7 +432,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>70.25406374501992</v>
+        <v>70.257057919107822</v>
       </c>
       <c r="F18" s="0"/>
     </row>
@@ -450,10 +450,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>72.721673306772914</v>
+        <v>72.724672444951565</v>
       </c>
       <c r="F19" s="0">
-        <v>78.300239043824689</v>
+        <v>78.303238182003383</v>
       </c>
     </row>
     <row r="20">
@@ -470,10 +470,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>84.964780876494018</v>
+        <v>84.967780014672698</v>
       </c>
       <c r="F20" s="0">
-        <v>82.111115537848605</v>
+        <v>82.114114676027299</v>
       </c>
     </row>
     <row r="21">
@@ -490,10 +490,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>86.519721115537848</v>
+        <v>86.52271335914601</v>
       </c>
       <c r="F21" s="0">
-        <v>82.712151394422321</v>
+        <v>82.715143638030469</v>
       </c>
     </row>
     <row r="22">
@@ -510,10 +510,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>82.072788844621542</v>
+        <v>82.075767299088611</v>
       </c>
       <c r="F22" s="0">
-        <v>83.083944223107579</v>
+        <v>83.086922677574663</v>
       </c>
     </row>
     <row r="23">
@@ -530,10 +530,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>76.558207171314749</v>
+        <v>76.561164942070278</v>
       </c>
       <c r="F23" s="0">
-        <v>83.286095617529867</v>
+        <v>83.28905338828541</v>
       </c>
     </row>
     <row r="24">
@@ -550,10 +550,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>83.793492063492053</v>
+        <v>83.796387783112849</v>
       </c>
       <c r="F24" s="0">
-        <v>83.311944444444435</v>
+        <v>83.314840164065259</v>
       </c>
     </row>
     <row r="25">
@@ -570,10 +570,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>83.338725099601575</v>
+        <v>83.341531189805565</v>
       </c>
       <c r="F25" s="0">
-        <v>83.316772908366545</v>
+        <v>83.319578998570506</v>
       </c>
     </row>
     <row r="26">
@@ -590,10 +590,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>77.84171314741036</v>
+        <v>77.844402029915386</v>
       </c>
       <c r="F26" s="0">
-        <v>83.145617529880496</v>
+        <v>83.148306412385537</v>
       </c>
     </row>
     <row r="27">
@@ -610,10 +610,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>85.677817460317456</v>
+        <v>85.680361556841461</v>
       </c>
       <c r="F27" s="0">
-        <v>83.341706349206319</v>
+        <v>83.344250445730353</v>
       </c>
     </row>
     <row r="28">
@@ -630,10 +630,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>78.210158730158739</v>
+        <v>78.212530462419551</v>
       </c>
       <c r="F28" s="0">
-        <v>82.524603174603158</v>
+        <v>82.526974906864027</v>
       </c>
     </row>
     <row r="29">
@@ -650,10 +650,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>81.483253968253962</v>
+        <v>81.48542575796958</v>
       </c>
       <c r="F29" s="0">
-        <v>82.452142857142846</v>
+        <v>82.454314646858464</v>
       </c>
     </row>
     <row r="30">
@@ -670,10 +670,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>77.457023809523832</v>
+        <v>77.458712979302618</v>
       </c>
       <c r="F30" s="0">
-        <v>81.829761904761895</v>
+        <v>81.831451074540695</v>
       </c>
     </row>
   </sheetData>
